--- a/salaries.xlsx
+++ b/salaries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali.Zein\Documents\Prologistics\Payroll\JULY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali.Zein\Desktop\ask_hr_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1748563F-AA43-44BE-A2CC-D07E5BBC0F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15C8D32-4464-4F4A-82CB-BD2B22A0450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{30B3A7AD-8621-4E80-991D-8CFCF7D9ECBA}"/>
+    <workbookView xWindow="11145" yWindow="6600" windowWidth="17280" windowHeight="8880" xr2:uid="{30B3A7AD-8621-4E80-991D-8CFCF7D9ECBA}"/>
   </bookViews>
   <sheets>
     <sheet name="FULL TIMERS" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t>Employee Name</t>
-  </si>
-  <si>
     <t>E0006</t>
   </si>
   <si>
@@ -1016,6 +1013,9 @@
   </si>
   <si>
     <t>PAYMENT</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -1133,6 +1133,20 @@
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1157,20 +1171,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1185,14 +1185,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF12D96B-90A2-4760-8577-89A1159CE77E}" name="Table1" displayName="Table1" ref="A1:U91" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF12D96B-90A2-4760-8577-89A1159CE77E}" name="Table1" displayName="Table1" ref="A1:U91" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:U91" xr:uid="{DF12D96B-90A2-4760-8577-89A1159CE77E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U91">
     <sortCondition ref="B1:B91"/>
   </sortState>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{3BAC271E-6B6F-4F33-B92B-98A20AA86FAA}" name="No."/>
-    <tableColumn id="2" xr3:uid="{996C54DD-5396-414B-92FF-EA2053BA301D}" name="Employee Name"/>
+    <tableColumn id="2" xr3:uid="{996C54DD-5396-414B-92FF-EA2053BA301D}" name="Name"/>
     <tableColumn id="3" xr3:uid="{82C443DC-47A9-449A-AD9B-50EE139E63A2}" name="Branch Code"/>
     <tableColumn id="4" xr3:uid="{3941F288-5768-42A7-A21D-7C19D5A650F1}" name="Area Mng"/>
     <tableColumn id="5" xr3:uid="{2FD60C79-C7A6-4534-A331-64EF024D74AC}" name="Payment Method"/>
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD431D67-9B87-4A1C-9BD8-CC5FFFDC5CBB}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1584,81 +1584,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>326</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="U1" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="4">
@@ -1710,19 +1710,19 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
         <v>91</v>
       </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2">
@@ -1774,19 +1774,19 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2">
@@ -1838,19 +1838,19 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
         <v>139</v>
       </c>
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>440</v>
@@ -1868,19 +1868,19 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
         <v>151</v>
       </c>
-      <c r="B6" t="s">
-        <v>152</v>
-      </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G6">
         <v>390</v>
@@ -1898,19 +1898,19 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
         <v>165</v>
       </c>
-      <c r="B7" t="s">
-        <v>166</v>
-      </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>370</v>
@@ -1928,19 +1928,19 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
         <v>145</v>
       </c>
-      <c r="B8" t="s">
-        <v>146</v>
-      </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>320</v>
@@ -1958,19 +1958,19 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
         <v>111</v>
       </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>440</v>
@@ -1988,19 +1988,19 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2">
@@ -2052,19 +2052,19 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
         <v>113</v>
       </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>440</v>
@@ -2082,19 +2082,19 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
         <v>121</v>
       </c>
-      <c r="B12" t="s">
-        <v>122</v>
-      </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>390</v>
@@ -2112,19 +2112,19 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
         <v>137</v>
       </c>
-      <c r="B13" t="s">
-        <v>138</v>
-      </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>390</v>
@@ -2142,19 +2142,19 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
         <v>129</v>
       </c>
-      <c r="B14" t="s">
-        <v>130</v>
-      </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>390</v>
@@ -2172,19 +2172,19 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2">
@@ -2236,19 +2236,19 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
       <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" t="s">
         <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>203</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2">
@@ -2300,19 +2300,19 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
         <v>117</v>
       </c>
-      <c r="B17" t="s">
-        <v>118</v>
-      </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17">
         <v>320</v>
@@ -2330,19 +2330,19 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" t="s">
         <v>149</v>
       </c>
-      <c r="B18" t="s">
-        <v>150</v>
-      </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18">
         <v>320</v>
@@ -2360,19 +2360,19 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
         <v>89</v>
       </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
       <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" t="s">
         <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
       </c>
       <c r="F19" s="1">
         <v>45838</v>
@@ -2426,19 +2426,19 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
         <v>131</v>
       </c>
-      <c r="B20" t="s">
-        <v>132</v>
-      </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20">
         <v>320</v>
@@ -2456,19 +2456,19 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="4">
@@ -2520,19 +2520,19 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" t="s">
         <v>155</v>
       </c>
-      <c r="B22" t="s">
-        <v>156</v>
-      </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G22">
         <v>440</v>
@@ -2550,19 +2550,19 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" t="s">
         <v>169</v>
       </c>
-      <c r="B23" t="s">
-        <v>170</v>
-      </c>
       <c r="C23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>350</v>
@@ -2580,19 +2580,19 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
         <v>93</v>
       </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="2">
@@ -2644,19 +2644,19 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
         <v>103</v>
       </c>
-      <c r="B25" t="s">
-        <v>104</v>
-      </c>
       <c r="C25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25">
         <v>320</v>
@@ -2674,19 +2674,19 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
       <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" t="s">
         <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>203</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="2">
@@ -2738,19 +2738,19 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
         <v>191</v>
       </c>
-      <c r="B27" t="s">
-        <v>192</v>
-      </c>
       <c r="C27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G27">
         <v>440</v>
@@ -2768,19 +2768,19 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s">
         <v>153</v>
       </c>
-      <c r="B28" t="s">
-        <v>154</v>
-      </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28">
         <v>390</v>
@@ -2798,19 +2798,19 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" t="s">
         <v>173</v>
       </c>
-      <c r="B29" t="s">
-        <v>174</v>
-      </c>
       <c r="C29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <v>350</v>
@@ -2828,19 +2828,19 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="4">
@@ -2892,19 +2892,19 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" t="s">
         <v>167</v>
       </c>
-      <c r="B31" t="s">
-        <v>168</v>
-      </c>
       <c r="C31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31">
         <v>320</v>
@@ -2922,19 +2922,19 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
         <v>107</v>
       </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32">
         <v>440</v>
@@ -2952,19 +2952,19 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
       <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" t="s">
         <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="2">
@@ -3016,19 +3016,19 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" t="s">
         <v>181</v>
       </c>
-      <c r="B34" t="s">
-        <v>182</v>
-      </c>
       <c r="C34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <v>350</v>
@@ -3046,19 +3046,19 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="4">
@@ -3110,19 +3110,19 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="4">
@@ -3174,19 +3174,19 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" t="s">
         <v>193</v>
       </c>
-      <c r="B37" t="s">
-        <v>194</v>
-      </c>
       <c r="C37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G37">
         <v>440</v>
@@ -3204,19 +3204,19 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" t="s">
         <v>143</v>
       </c>
-      <c r="B38" t="s">
-        <v>144</v>
-      </c>
       <c r="C38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G38">
         <v>390</v>
@@ -3234,19 +3234,19 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
         <v>109</v>
       </c>
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39">
         <v>440</v>
@@ -3264,19 +3264,19 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="2">
@@ -3328,19 +3328,19 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>203</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="4">
@@ -3392,19 +3392,19 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="4">
@@ -3456,19 +3456,19 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
         <v>127</v>
       </c>
-      <c r="B43" t="s">
-        <v>128</v>
-      </c>
       <c r="C43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G43">
         <v>390</v>
@@ -3486,19 +3486,19 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" t="s">
         <v>161</v>
       </c>
-      <c r="B44" t="s">
-        <v>162</v>
-      </c>
       <c r="C44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G44">
         <v>690</v>
@@ -3516,19 +3516,19 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" t="s">
         <v>195</v>
       </c>
-      <c r="B45" t="s">
-        <v>196</v>
-      </c>
       <c r="C45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G45">
         <v>320</v>
@@ -3546,19 +3546,19 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="4">
@@ -3610,19 +3610,19 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
         <v>31</v>
       </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="2">
@@ -3674,19 +3674,19 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="C48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D48" t="s">
-        <v>203</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="4">
@@ -3738,19 +3738,19 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
         <v>147</v>
       </c>
-      <c r="B49" t="s">
-        <v>148</v>
-      </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G49">
         <v>320</v>
@@ -3767,19 +3767,19 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>2</v>
       </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
       <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" t="s">
         <v>7</v>
-      </c>
-      <c r="D50" t="s">
-        <v>203</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="2">
@@ -3831,19 +3831,19 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
         <v>159</v>
       </c>
-      <c r="B51" t="s">
-        <v>160</v>
-      </c>
       <c r="C51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51">
         <v>440</v>
@@ -3861,19 +3861,19 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" t="s">
         <v>179</v>
       </c>
-      <c r="B52" t="s">
-        <v>180</v>
-      </c>
       <c r="C52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G52">
         <v>350</v>
@@ -3891,19 +3891,19 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
         <v>105</v>
       </c>
-      <c r="B53" t="s">
-        <v>106</v>
-      </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G53">
         <v>390</v>
@@ -3921,19 +3921,19 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" t="s">
         <v>197</v>
       </c>
-      <c r="B54" t="s">
-        <v>198</v>
-      </c>
       <c r="C54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G54">
         <v>440</v>
@@ -3951,19 +3951,19 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
         <v>115</v>
       </c>
-      <c r="B55" t="s">
-        <v>116</v>
-      </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G55">
         <v>320</v>
@@ -3981,19 +3981,19 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" t="s">
         <v>79</v>
       </c>
-      <c r="B56" t="s">
-        <v>80</v>
-      </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="2">
@@ -4045,19 +4045,19 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
         <v>75</v>
       </c>
-      <c r="B57" t="s">
-        <v>76</v>
-      </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="2">
@@ -4109,19 +4109,19 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" t="s">
         <v>185</v>
       </c>
-      <c r="B58" t="s">
-        <v>186</v>
-      </c>
       <c r="C58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G58">
         <v>350</v>
@@ -4139,19 +4139,19 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" t="s">
         <v>97</v>
       </c>
-      <c r="B59" t="s">
-        <v>98</v>
-      </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59">
         <v>440</v>
@@ -4169,19 +4169,19 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" t="s">
         <v>163</v>
       </c>
-      <c r="B60" t="s">
-        <v>164</v>
-      </c>
       <c r="C60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G60">
         <v>440</v>
@@ -4199,19 +4199,19 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" t="s">
         <v>77</v>
       </c>
-      <c r="B61" t="s">
-        <v>78</v>
-      </c>
       <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" t="s">
         <v>7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>203</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
       </c>
       <c r="F61" s="1">
         <v>45849</v>
@@ -4265,19 +4265,19 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s">
         <v>133</v>
       </c>
-      <c r="B62" t="s">
-        <v>134</v>
-      </c>
       <c r="C62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G62">
         <v>320</v>
@@ -4295,19 +4295,19 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" t="s">
         <v>101</v>
       </c>
-      <c r="B63" t="s">
-        <v>102</v>
-      </c>
       <c r="C63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G63">
         <v>440</v>
@@ -4325,19 +4325,19 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="C64" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="4">
@@ -4389,19 +4389,19 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C65" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="4">
@@ -4453,19 +4453,19 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
         <v>125</v>
       </c>
-      <c r="B66" t="s">
-        <v>126</v>
-      </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G66">
         <v>440</v>
@@ -4483,19 +4483,19 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D67" t="s">
-        <v>203</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F67" s="1">
         <v>45838</v>
@@ -4549,19 +4549,19 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D68" t="s">
-        <v>203</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="4">
@@ -4613,19 +4613,19 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" t="s">
         <v>95</v>
       </c>
-      <c r="B69" t="s">
-        <v>96</v>
-      </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="2">
@@ -4677,19 +4677,19 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
         <v>141</v>
       </c>
-      <c r="B70" t="s">
-        <v>142</v>
-      </c>
       <c r="C70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G70">
         <v>390</v>
@@ -4707,19 +4707,19 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" t="s">
         <v>119</v>
       </c>
-      <c r="B71" t="s">
-        <v>120</v>
-      </c>
       <c r="C71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G71">
         <v>350</v>
@@ -4737,19 +4737,19 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
         <v>157</v>
       </c>
-      <c r="B72" t="s">
-        <v>158</v>
-      </c>
       <c r="C72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G72">
         <v>390</v>
@@ -4767,19 +4767,19 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" t="s">
         <v>187</v>
       </c>
-      <c r="B73" t="s">
-        <v>188</v>
-      </c>
       <c r="C73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G73">
         <v>440</v>
@@ -4797,19 +4797,19 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
         <v>123</v>
       </c>
-      <c r="B74" t="s">
-        <v>124</v>
-      </c>
       <c r="C74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G74">
         <v>440</v>
@@ -4827,19 +4827,19 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" t="s">
         <v>177</v>
       </c>
-      <c r="B75" t="s">
-        <v>178</v>
-      </c>
       <c r="C75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G75">
         <v>350</v>
@@ -4857,19 +4857,19 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
         <v>87</v>
       </c>
-      <c r="B76" t="s">
-        <v>88</v>
-      </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="2">
@@ -4921,19 +4921,19 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77" t="s">
         <v>199</v>
       </c>
-      <c r="B77" t="s">
-        <v>200</v>
-      </c>
       <c r="C77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G77">
         <v>350</v>
@@ -4951,19 +4951,19 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" t="s">
         <v>33</v>
       </c>
-      <c r="B78" t="s">
-        <v>34</v>
-      </c>
       <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" t="s">
         <v>7</v>
-      </c>
-      <c r="D78" t="s">
-        <v>203</v>
-      </c>
-      <c r="E78" t="s">
-        <v>8</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="2">
@@ -5015,19 +5015,19 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" t="s">
         <v>189</v>
       </c>
-      <c r="B79" t="s">
-        <v>190</v>
-      </c>
       <c r="C79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G79">
         <v>350</v>
@@ -5045,19 +5045,19 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
         <v>85</v>
       </c>
-      <c r="B80" t="s">
-        <v>86</v>
-      </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="2">
@@ -5109,19 +5109,19 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81" t="s">
         <v>201</v>
       </c>
-      <c r="B81" t="s">
-        <v>202</v>
-      </c>
       <c r="C81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G81">
         <v>350</v>
@@ -5139,19 +5139,19 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D82" t="s">
-        <v>203</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="4">
@@ -5203,19 +5203,19 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" t="s">
         <v>99</v>
       </c>
-      <c r="B83" t="s">
-        <v>100</v>
-      </c>
       <c r="C83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G83">
         <v>370</v>
@@ -5233,19 +5233,19 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" t="s">
         <v>175</v>
       </c>
-      <c r="B84" t="s">
-        <v>176</v>
-      </c>
       <c r="C84" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G84">
         <v>350</v>
@@ -5263,19 +5263,19 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C85" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="4">
@@ -5327,19 +5327,19 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
         <v>171</v>
       </c>
-      <c r="B86" t="s">
-        <v>172</v>
-      </c>
       <c r="C86" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G86">
         <v>350</v>
@@ -5357,19 +5357,19 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" t="s">
         <v>183</v>
       </c>
-      <c r="B87" t="s">
-        <v>184</v>
-      </c>
       <c r="C87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G87">
         <v>350</v>
@@ -5387,19 +5387,19 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D88" t="s">
-        <v>203</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="4">
@@ -5451,19 +5451,19 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" t="s">
         <v>135</v>
       </c>
-      <c r="B89" t="s">
-        <v>136</v>
-      </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G89">
         <v>350</v>
@@ -5481,19 +5481,19 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C90" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="4">
@@ -5545,19 +5545,19 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" t="s">
         <v>35</v>
       </c>
-      <c r="B91" t="s">
-        <v>36</v>
-      </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="2">
@@ -5620,7 +5620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98AB8BD-1BFE-4054-89F3-6A034501CB4F}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
@@ -5632,24 +5632,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" t="s">
         <v>322</v>
       </c>
-      <c r="B1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>325</v>
-      </c>
-      <c r="D1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2">
         <v>2.5</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3">
         <v>25</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4">
         <v>29</v>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5">
         <v>19</v>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6">
         <v>26</v>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11">
         <v>22</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12">
         <v>19</v>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B13">
         <v>26</v>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B14">
         <v>24</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B17">
         <v>25</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B21">
         <v>23</v>
@@ -5989,7 +5989,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B23">
         <v>26</v>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B24">
         <v>29</v>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25">
         <v>15</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B26">
         <v>28</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B27">
         <v>2.5</v>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B30">
         <v>24</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B31">
         <v>15</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -6176,7 +6176,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B33">
         <v>20</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B34">
         <v>11</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35">
         <v>26</v>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B36">
         <v>2.5</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37">
         <v>14</v>
@@ -6261,7 +6261,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B38">
         <v>26</v>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B39">
         <v>23</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B40">
         <v>24</v>
@@ -6312,7 +6312,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B41">
         <v>2.5</v>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B42">
         <v>27</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B43">
         <v>21</v>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B44">
         <v>24</v>
@@ -6380,7 +6380,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B45">
         <v>25</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B46">
         <v>24</v>
@@ -6414,7 +6414,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B47">
         <v>14</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B48">
         <v>17</v>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -6465,7 +6465,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B50">
         <v>25</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B51">
         <v>25</v>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B52">
         <v>25</v>
@@ -6516,7 +6516,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B53">
         <v>24</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B54">
         <v>16</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B55">
         <v>25</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B57">
         <v>23</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B58">
         <v>12</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B59">
         <v>23</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B60">
         <v>9</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B61">
         <v>25</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B63">
         <v>12</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B64">
         <v>19</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -6725,7 +6725,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B66">
         <v>12</v>

--- a/salaries.xlsx
+++ b/salaries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali.Zein\Desktop\ask_hr_web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali.Zein\Documents\Prologistics\Payroll\JULY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15C8D32-4464-4F4A-82CB-BD2B22A0450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1748563F-AA43-44BE-A2CC-D07E5BBC0F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11145" yWindow="6600" windowWidth="17280" windowHeight="8880" xr2:uid="{30B3A7AD-8621-4E80-991D-8CFCF7D9ECBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{30B3A7AD-8621-4E80-991D-8CFCF7D9ECBA}"/>
   </bookViews>
   <sheets>
     <sheet name="FULL TIMERS" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,9 @@
     <t>No.</t>
   </si>
   <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
     <t>E0006</t>
   </si>
   <si>
@@ -1013,9 +1016,6 @@
   </si>
   <si>
     <t>PAYMENT</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -1133,20 +1133,6 @@
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1171,6 +1157,20 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1185,14 +1185,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF12D96B-90A2-4760-8577-89A1159CE77E}" name="Table1" displayName="Table1" ref="A1:U91" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF12D96B-90A2-4760-8577-89A1159CE77E}" name="Table1" displayName="Table1" ref="A1:U91" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:U91" xr:uid="{DF12D96B-90A2-4760-8577-89A1159CE77E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U91">
     <sortCondition ref="B1:B91"/>
   </sortState>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{3BAC271E-6B6F-4F33-B92B-98A20AA86FAA}" name="No."/>
-    <tableColumn id="2" xr3:uid="{996C54DD-5396-414B-92FF-EA2053BA301D}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{996C54DD-5396-414B-92FF-EA2053BA301D}" name="Employee Name"/>
     <tableColumn id="3" xr3:uid="{82C443DC-47A9-449A-AD9B-50EE139E63A2}" name="Branch Code"/>
     <tableColumn id="4" xr3:uid="{3941F288-5768-42A7-A21D-7C19D5A650F1}" name="Area Mng"/>
     <tableColumn id="5" xr3:uid="{2FD60C79-C7A6-4534-A331-64EF024D74AC}" name="Payment Method"/>
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD431D67-9B87-4A1C-9BD8-CC5FFFDC5CBB}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1584,81 +1584,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>326</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="4">
@@ -1710,19 +1710,19 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2">
@@ -1774,19 +1774,19 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2">
@@ -1838,19 +1838,19 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>440</v>
@@ -1868,19 +1868,19 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G6">
         <v>390</v>
@@ -1898,19 +1898,19 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>370</v>
@@ -1928,19 +1928,19 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>320</v>
@@ -1958,19 +1958,19 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>440</v>
@@ -1988,19 +1988,19 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2">
@@ -2052,19 +2052,19 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <v>440</v>
@@ -2082,19 +2082,19 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <v>390</v>
@@ -2112,19 +2112,19 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>390</v>
@@ -2142,19 +2142,19 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <v>390</v>
@@ -2172,19 +2172,19 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2">
@@ -2236,19 +2236,19 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2">
@@ -2300,19 +2300,19 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <v>320</v>
@@ -2330,19 +2330,19 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18">
         <v>320</v>
@@ -2360,19 +2360,19 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1">
         <v>45838</v>
@@ -2426,19 +2426,19 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20">
         <v>320</v>
@@ -2456,19 +2456,19 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="4">
@@ -2520,19 +2520,19 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G22">
         <v>440</v>
@@ -2550,19 +2550,19 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23">
         <v>350</v>
@@ -2580,19 +2580,19 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="2">
@@ -2644,19 +2644,19 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>320</v>
@@ -2674,19 +2674,19 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="2">
@@ -2738,19 +2738,19 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G27">
         <v>440</v>
@@ -2768,19 +2768,19 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28">
         <v>390</v>
@@ -2798,19 +2798,19 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G29">
         <v>350</v>
@@ -2828,19 +2828,19 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="4">
@@ -2892,19 +2892,19 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31">
         <v>320</v>
@@ -2922,19 +2922,19 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G32">
         <v>440</v>
@@ -2952,19 +2952,19 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="2">
@@ -3016,19 +3016,19 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G34">
         <v>350</v>
@@ -3046,19 +3046,19 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="4">
@@ -3110,19 +3110,19 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="4">
@@ -3174,19 +3174,19 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E37" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G37">
         <v>440</v>
@@ -3204,19 +3204,19 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G38">
         <v>390</v>
@@ -3234,19 +3234,19 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G39">
         <v>440</v>
@@ -3264,19 +3264,19 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="2">
@@ -3328,19 +3328,19 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="4">
@@ -3392,19 +3392,19 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="4">
@@ -3456,19 +3456,19 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G43">
         <v>390</v>
@@ -3486,19 +3486,19 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E44" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G44">
         <v>690</v>
@@ -3516,19 +3516,19 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G45">
         <v>320</v>
@@ -3546,19 +3546,19 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="4">
@@ -3610,19 +3610,19 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>203</v>
+      </c>
+      <c r="E47" t="s">
         <v>30</v>
-      </c>
-      <c r="B47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" t="s">
-        <v>29</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="2">
@@ -3674,19 +3674,19 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="4">
@@ -3738,19 +3738,19 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G49">
         <v>320</v>
@@ -3767,19 +3767,19 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="2">
@@ -3831,19 +3831,19 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G51">
         <v>440</v>
@@ -3861,19 +3861,19 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D52" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G52">
         <v>350</v>
@@ -3891,19 +3891,19 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G53">
         <v>390</v>
@@ -3921,19 +3921,19 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G54">
         <v>440</v>
@@ -3951,19 +3951,19 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G55">
         <v>320</v>
@@ -3981,19 +3981,19 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="2">
@@ -4045,19 +4045,19 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="2">
@@ -4109,19 +4109,19 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G58">
         <v>350</v>
@@ -4139,19 +4139,19 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D59" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G59">
         <v>440</v>
@@ -4169,19 +4169,19 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G60">
         <v>440</v>
@@ -4199,19 +4199,19 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1">
         <v>45849</v>
@@ -4265,19 +4265,19 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G62">
         <v>320</v>
@@ -4295,19 +4295,19 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G63">
         <v>440</v>
@@ -4325,19 +4325,19 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="4">
@@ -4389,19 +4389,19 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="4">
@@ -4453,19 +4453,19 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G66">
         <v>440</v>
@@ -4483,19 +4483,19 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F67" s="1">
         <v>45838</v>
@@ -4549,19 +4549,19 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="4">
@@ -4613,19 +4613,19 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="2">
@@ -4677,19 +4677,19 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G70">
         <v>390</v>
@@ -4707,19 +4707,19 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G71">
         <v>350</v>
@@ -4737,19 +4737,19 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G72">
         <v>390</v>
@@ -4767,19 +4767,19 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C73" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G73">
         <v>440</v>
@@ -4797,19 +4797,19 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E74" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G74">
         <v>440</v>
@@ -4827,19 +4827,19 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C75" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G75">
         <v>350</v>
@@ -4857,19 +4857,19 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="2">
@@ -4921,19 +4921,19 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C77" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D77" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G77">
         <v>350</v>
@@ -4951,19 +4951,19 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="2">
@@ -5015,19 +5015,19 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C79" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D79" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G79">
         <v>350</v>
@@ -5045,19 +5045,19 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="2">
@@ -5109,19 +5109,19 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B81" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C81" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D81" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G81">
         <v>350</v>
@@ -5139,19 +5139,19 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="4">
@@ -5203,19 +5203,19 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G83">
         <v>370</v>
@@ -5233,19 +5233,19 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G84">
         <v>350</v>
@@ -5263,19 +5263,19 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="4">
@@ -5327,19 +5327,19 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G86">
         <v>350</v>
@@ -5357,19 +5357,19 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B87" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C87" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G87">
         <v>350</v>
@@ -5387,19 +5387,19 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="4">
@@ -5451,19 +5451,19 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B89" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D89" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G89">
         <v>350</v>
@@ -5481,19 +5481,19 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="4">
@@ -5545,19 +5545,19 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="2">
@@ -5620,7 +5620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98AB8BD-1BFE-4054-89F3-6A034501CB4F}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
@@ -5632,24 +5632,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" t="s">
         <v>323</v>
       </c>
-      <c r="C1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D1" t="s">
-        <v>322</v>
-      </c>
       <c r="E1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B2">
         <v>2.5</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B3">
         <v>25</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B4">
         <v>29</v>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B5">
         <v>19</v>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B6">
         <v>26</v>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B11">
         <v>22</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B12">
         <v>19</v>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B13">
         <v>26</v>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B14">
         <v>24</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B17">
         <v>25</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B21">
         <v>23</v>
@@ -5989,7 +5989,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B23">
         <v>26</v>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B24">
         <v>29</v>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B25">
         <v>15</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B26">
         <v>28</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B27">
         <v>2.5</v>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B30">
         <v>24</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B31">
         <v>15</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -6176,7 +6176,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B33">
         <v>20</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B34">
         <v>11</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B35">
         <v>26</v>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B36">
         <v>2.5</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37">
         <v>14</v>
@@ -6261,7 +6261,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B38">
         <v>26</v>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B39">
         <v>23</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B40">
         <v>24</v>
@@ -6312,7 +6312,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B41">
         <v>2.5</v>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B42">
         <v>27</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B43">
         <v>21</v>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B44">
         <v>24</v>
@@ -6380,7 +6380,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B45">
         <v>25</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B46">
         <v>24</v>
@@ -6414,7 +6414,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B47">
         <v>14</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B48">
         <v>17</v>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -6465,7 +6465,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B50">
         <v>25</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B51">
         <v>25</v>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B52">
         <v>25</v>
@@ -6516,7 +6516,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B53">
         <v>24</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B54">
         <v>16</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B55">
         <v>25</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B57">
         <v>23</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B58">
         <v>12</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B59">
         <v>23</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B60">
         <v>9</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B61">
         <v>25</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B63">
         <v>12</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B64">
         <v>19</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -6725,7 +6725,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B66">
         <v>12</v>

--- a/salaries.xlsx
+++ b/salaries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali.Zein\Documents\Prologistics\Payroll\JULY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali.Zein\Desktop\ask_hr_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1748563F-AA43-44BE-A2CC-D07E5BBC0F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A74EA90-0317-4927-B723-B7D57A1AE279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{30B3A7AD-8621-4E80-991D-8CFCF7D9ECBA}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="17280" windowHeight="8880" xr2:uid="{30B3A7AD-8621-4E80-991D-8CFCF7D9ECBA}"/>
   </bookViews>
   <sheets>
     <sheet name="FULL TIMERS" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t>Employee Name</t>
-  </si>
-  <si>
     <t>E0006</t>
   </si>
   <si>
@@ -1016,6 +1013,9 @@
   </si>
   <si>
     <t>PAYMENT</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -1133,6 +1133,20 @@
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1157,20 +1171,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1185,14 +1185,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF12D96B-90A2-4760-8577-89A1159CE77E}" name="Table1" displayName="Table1" ref="A1:U91" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF12D96B-90A2-4760-8577-89A1159CE77E}" name="Table1" displayName="Table1" ref="A1:U91" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:U91" xr:uid="{DF12D96B-90A2-4760-8577-89A1159CE77E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U91">
     <sortCondition ref="B1:B91"/>
   </sortState>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{3BAC271E-6B6F-4F33-B92B-98A20AA86FAA}" name="No."/>
-    <tableColumn id="2" xr3:uid="{996C54DD-5396-414B-92FF-EA2053BA301D}" name="Employee Name"/>
+    <tableColumn id="2" xr3:uid="{996C54DD-5396-414B-92FF-EA2053BA301D}" name="Name"/>
     <tableColumn id="3" xr3:uid="{82C443DC-47A9-449A-AD9B-50EE139E63A2}" name="Branch Code"/>
     <tableColumn id="4" xr3:uid="{3941F288-5768-42A7-A21D-7C19D5A650F1}" name="Area Mng"/>
     <tableColumn id="5" xr3:uid="{2FD60C79-C7A6-4534-A331-64EF024D74AC}" name="Payment Method"/>
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD431D67-9B87-4A1C-9BD8-CC5FFFDC5CBB}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1583,82 +1583,82 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
+      <c r="B1" t="s">
+        <v>326</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="U1" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="4">
@@ -1710,19 +1710,19 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
         <v>91</v>
       </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2">
@@ -1774,19 +1774,19 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2">
@@ -1838,19 +1838,19 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
         <v>139</v>
       </c>
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>440</v>
@@ -1868,19 +1868,19 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
         <v>151</v>
       </c>
-      <c r="B6" t="s">
-        <v>152</v>
-      </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G6">
         <v>390</v>
@@ -1898,19 +1898,19 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
         <v>165</v>
       </c>
-      <c r="B7" t="s">
-        <v>166</v>
-      </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>370</v>
@@ -1928,19 +1928,19 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
         <v>145</v>
       </c>
-      <c r="B8" t="s">
-        <v>146</v>
-      </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>320</v>
@@ -1958,19 +1958,19 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
         <v>111</v>
       </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>440</v>
@@ -1988,19 +1988,19 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2">
@@ -2052,19 +2052,19 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
         <v>113</v>
       </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>440</v>
@@ -2082,19 +2082,19 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
         <v>121</v>
       </c>
-      <c r="B12" t="s">
-        <v>122</v>
-      </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>390</v>
@@ -2112,19 +2112,19 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
         <v>137</v>
       </c>
-      <c r="B13" t="s">
-        <v>138</v>
-      </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>390</v>
@@ -2142,19 +2142,19 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
         <v>129</v>
       </c>
-      <c r="B14" t="s">
-        <v>130</v>
-      </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>390</v>
@@ -2172,19 +2172,19 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2">
@@ -2236,19 +2236,19 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
       <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" t="s">
         <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>203</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2">
@@ -2300,19 +2300,19 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
         <v>117</v>
       </c>
-      <c r="B17" t="s">
-        <v>118</v>
-      </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17">
         <v>320</v>
@@ -2330,19 +2330,19 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" t="s">
         <v>149</v>
       </c>
-      <c r="B18" t="s">
-        <v>150</v>
-      </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18">
         <v>320</v>
@@ -2360,19 +2360,19 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
         <v>89</v>
       </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
       <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" t="s">
         <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
       </c>
       <c r="F19" s="1">
         <v>45838</v>
@@ -2426,19 +2426,19 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
         <v>131</v>
       </c>
-      <c r="B20" t="s">
-        <v>132</v>
-      </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20">
         <v>320</v>
@@ -2456,19 +2456,19 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="4">
@@ -2520,19 +2520,19 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" t="s">
         <v>155</v>
       </c>
-      <c r="B22" t="s">
-        <v>156</v>
-      </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G22">
         <v>440</v>
@@ -2550,19 +2550,19 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" t="s">
         <v>169</v>
       </c>
-      <c r="B23" t="s">
-        <v>170</v>
-      </c>
       <c r="C23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>350</v>
@@ -2580,19 +2580,19 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
         <v>93</v>
       </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="2">
@@ -2644,19 +2644,19 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
         <v>103</v>
       </c>
-      <c r="B25" t="s">
-        <v>104</v>
-      </c>
       <c r="C25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25">
         <v>320</v>
@@ -2674,19 +2674,19 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
       <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" t="s">
         <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>203</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="2">
@@ -2738,19 +2738,19 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
         <v>191</v>
       </c>
-      <c r="B27" t="s">
-        <v>192</v>
-      </c>
       <c r="C27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G27">
         <v>440</v>
@@ -2768,19 +2768,19 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s">
         <v>153</v>
       </c>
-      <c r="B28" t="s">
-        <v>154</v>
-      </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28">
         <v>390</v>
@@ -2798,19 +2798,19 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" t="s">
         <v>173</v>
       </c>
-      <c r="B29" t="s">
-        <v>174</v>
-      </c>
       <c r="C29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <v>350</v>
@@ -2828,19 +2828,19 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="4">
@@ -2892,19 +2892,19 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" t="s">
         <v>167</v>
       </c>
-      <c r="B31" t="s">
-        <v>168</v>
-      </c>
       <c r="C31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31">
         <v>320</v>
@@ -2922,19 +2922,19 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
         <v>107</v>
       </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32">
         <v>440</v>
@@ -2952,19 +2952,19 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
       <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" t="s">
         <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="2">
@@ -3016,19 +3016,19 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" t="s">
         <v>181</v>
       </c>
-      <c r="B34" t="s">
-        <v>182</v>
-      </c>
       <c r="C34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <v>350</v>
@@ -3046,19 +3046,19 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="4">
@@ -3110,19 +3110,19 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="4">
@@ -3174,19 +3174,19 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" t="s">
         <v>193</v>
       </c>
-      <c r="B37" t="s">
-        <v>194</v>
-      </c>
       <c r="C37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G37">
         <v>440</v>
@@ -3204,19 +3204,19 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" t="s">
         <v>143</v>
       </c>
-      <c r="B38" t="s">
-        <v>144</v>
-      </c>
       <c r="C38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G38">
         <v>390</v>
@@ -3234,19 +3234,19 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
         <v>109</v>
       </c>
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39">
         <v>440</v>
@@ -3264,19 +3264,19 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="2">
@@ -3328,19 +3328,19 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>203</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="4">
@@ -3392,19 +3392,19 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="4">
@@ -3456,19 +3456,19 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
         <v>127</v>
       </c>
-      <c r="B43" t="s">
-        <v>128</v>
-      </c>
       <c r="C43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G43">
         <v>390</v>
@@ -3486,19 +3486,19 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" t="s">
         <v>161</v>
       </c>
-      <c r="B44" t="s">
-        <v>162</v>
-      </c>
       <c r="C44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G44">
         <v>690</v>
@@ -3516,19 +3516,19 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" t="s">
         <v>195</v>
       </c>
-      <c r="B45" t="s">
-        <v>196</v>
-      </c>
       <c r="C45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G45">
         <v>320</v>
@@ -3546,19 +3546,19 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="4">
@@ -3610,19 +3610,19 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
         <v>31</v>
       </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="2">
@@ -3674,19 +3674,19 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="C48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D48" t="s">
-        <v>203</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="4">
@@ -3738,19 +3738,19 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
         <v>147</v>
       </c>
-      <c r="B49" t="s">
-        <v>148</v>
-      </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G49">
         <v>320</v>
@@ -3767,19 +3767,19 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>2</v>
       </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
       <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" t="s">
         <v>7</v>
-      </c>
-      <c r="D50" t="s">
-        <v>203</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="2">
@@ -3831,19 +3831,19 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
         <v>159</v>
       </c>
-      <c r="B51" t="s">
-        <v>160</v>
-      </c>
       <c r="C51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51">
         <v>440</v>
@@ -3861,19 +3861,19 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" t="s">
         <v>179</v>
       </c>
-      <c r="B52" t="s">
-        <v>180</v>
-      </c>
       <c r="C52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G52">
         <v>350</v>
@@ -3891,19 +3891,19 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
         <v>105</v>
       </c>
-      <c r="B53" t="s">
-        <v>106</v>
-      </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G53">
         <v>390</v>
@@ -3921,19 +3921,19 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" t="s">
         <v>197</v>
       </c>
-      <c r="B54" t="s">
-        <v>198</v>
-      </c>
       <c r="C54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G54">
         <v>440</v>
@@ -3951,19 +3951,19 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
         <v>115</v>
       </c>
-      <c r="B55" t="s">
-        <v>116</v>
-      </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G55">
         <v>320</v>
@@ -3981,19 +3981,19 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" t="s">
         <v>79</v>
       </c>
-      <c r="B56" t="s">
-        <v>80</v>
-      </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="2">
@@ -4045,19 +4045,19 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
         <v>75</v>
       </c>
-      <c r="B57" t="s">
-        <v>76</v>
-      </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="2">
@@ -4109,19 +4109,19 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" t="s">
         <v>185</v>
       </c>
-      <c r="B58" t="s">
-        <v>186</v>
-      </c>
       <c r="C58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G58">
         <v>350</v>
@@ -4139,19 +4139,19 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" t="s">
         <v>97</v>
       </c>
-      <c r="B59" t="s">
-        <v>98</v>
-      </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59">
         <v>440</v>
@@ -4169,19 +4169,19 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" t="s">
         <v>163</v>
       </c>
-      <c r="B60" t="s">
-        <v>164</v>
-      </c>
       <c r="C60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G60">
         <v>440</v>
@@ -4199,19 +4199,19 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" t="s">
         <v>77</v>
       </c>
-      <c r="B61" t="s">
-        <v>78</v>
-      </c>
       <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" t="s">
         <v>7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>203</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
       </c>
       <c r="F61" s="1">
         <v>45849</v>
@@ -4265,19 +4265,19 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s">
         <v>133</v>
       </c>
-      <c r="B62" t="s">
-        <v>134</v>
-      </c>
       <c r="C62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G62">
         <v>320</v>
@@ -4295,19 +4295,19 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" t="s">
         <v>101</v>
       </c>
-      <c r="B63" t="s">
-        <v>102</v>
-      </c>
       <c r="C63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G63">
         <v>440</v>
@@ -4325,19 +4325,19 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="C64" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="4">
@@ -4389,19 +4389,19 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C65" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="4">
@@ -4453,19 +4453,19 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
         <v>125</v>
       </c>
-      <c r="B66" t="s">
-        <v>126</v>
-      </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G66">
         <v>440</v>
@@ -4483,19 +4483,19 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D67" t="s">
-        <v>203</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F67" s="1">
         <v>45838</v>
@@ -4549,19 +4549,19 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D68" t="s">
-        <v>203</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="4">
@@ -4613,19 +4613,19 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" t="s">
         <v>95</v>
       </c>
-      <c r="B69" t="s">
-        <v>96</v>
-      </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="2">
@@ -4677,19 +4677,19 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
         <v>141</v>
       </c>
-      <c r="B70" t="s">
-        <v>142</v>
-      </c>
       <c r="C70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G70">
         <v>390</v>
@@ -4707,19 +4707,19 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" t="s">
         <v>119</v>
       </c>
-      <c r="B71" t="s">
-        <v>120</v>
-      </c>
       <c r="C71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G71">
         <v>350</v>
@@ -4737,19 +4737,19 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
         <v>157</v>
       </c>
-      <c r="B72" t="s">
-        <v>158</v>
-      </c>
       <c r="C72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G72">
         <v>390</v>
@@ -4767,19 +4767,19 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" t="s">
         <v>187</v>
       </c>
-      <c r="B73" t="s">
-        <v>188</v>
-      </c>
       <c r="C73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G73">
         <v>440</v>
@@ -4797,19 +4797,19 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
         <v>123</v>
       </c>
-      <c r="B74" t="s">
-        <v>124</v>
-      </c>
       <c r="C74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G74">
         <v>440</v>
@@ -4827,19 +4827,19 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" t="s">
         <v>177</v>
       </c>
-      <c r="B75" t="s">
-        <v>178</v>
-      </c>
       <c r="C75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G75">
         <v>350</v>
@@ -4857,19 +4857,19 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
         <v>87</v>
       </c>
-      <c r="B76" t="s">
-        <v>88</v>
-      </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="2">
@@ -4921,19 +4921,19 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77" t="s">
         <v>199</v>
       </c>
-      <c r="B77" t="s">
-        <v>200</v>
-      </c>
       <c r="C77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G77">
         <v>350</v>
@@ -4951,19 +4951,19 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" t="s">
         <v>33</v>
       </c>
-      <c r="B78" t="s">
-        <v>34</v>
-      </c>
       <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" t="s">
         <v>7</v>
-      </c>
-      <c r="D78" t="s">
-        <v>203</v>
-      </c>
-      <c r="E78" t="s">
-        <v>8</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="2">
@@ -5015,19 +5015,19 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" t="s">
         <v>189</v>
       </c>
-      <c r="B79" t="s">
-        <v>190</v>
-      </c>
       <c r="C79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G79">
         <v>350</v>
@@ -5045,19 +5045,19 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
         <v>85</v>
       </c>
-      <c r="B80" t="s">
-        <v>86</v>
-      </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="2">
@@ -5109,19 +5109,19 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81" t="s">
         <v>201</v>
       </c>
-      <c r="B81" t="s">
-        <v>202</v>
-      </c>
       <c r="C81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G81">
         <v>350</v>
@@ -5139,19 +5139,19 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D82" t="s">
-        <v>203</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="4">
@@ -5203,19 +5203,19 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" t="s">
         <v>99</v>
       </c>
-      <c r="B83" t="s">
-        <v>100</v>
-      </c>
       <c r="C83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G83">
         <v>370</v>
@@ -5233,19 +5233,19 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" t="s">
         <v>175</v>
       </c>
-      <c r="B84" t="s">
-        <v>176</v>
-      </c>
       <c r="C84" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G84">
         <v>350</v>
@@ -5263,19 +5263,19 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C85" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="4">
@@ -5327,19 +5327,19 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
         <v>171</v>
       </c>
-      <c r="B86" t="s">
-        <v>172</v>
-      </c>
       <c r="C86" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G86">
         <v>350</v>
@@ -5357,19 +5357,19 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" t="s">
         <v>183</v>
       </c>
-      <c r="B87" t="s">
-        <v>184</v>
-      </c>
       <c r="C87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G87">
         <v>350</v>
@@ -5387,19 +5387,19 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D88" t="s">
-        <v>203</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="4">
@@ -5451,19 +5451,19 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" t="s">
         <v>135</v>
       </c>
-      <c r="B89" t="s">
-        <v>136</v>
-      </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G89">
         <v>350</v>
@@ -5481,19 +5481,19 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C90" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="4">
@@ -5545,19 +5545,19 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" t="s">
         <v>35</v>
       </c>
-      <c r="B91" t="s">
-        <v>36</v>
-      </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="2">
@@ -5620,7 +5620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98AB8BD-1BFE-4054-89F3-6A034501CB4F}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
@@ -5632,24 +5632,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" t="s">
         <v>322</v>
       </c>
-      <c r="B1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>325</v>
-      </c>
-      <c r="D1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2">
         <v>2.5</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3">
         <v>25</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4">
         <v>29</v>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5">
         <v>19</v>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6">
         <v>26</v>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11">
         <v>22</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12">
         <v>19</v>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B13">
         <v>26</v>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B14">
         <v>24</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B17">
         <v>25</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B21">
         <v>23</v>
@@ -5989,7 +5989,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B23">
         <v>26</v>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B24">
         <v>29</v>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25">
         <v>15</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B26">
         <v>28</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B27">
         <v>2.5</v>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B30">
         <v>24</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B31">
         <v>15</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -6176,7 +6176,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B33">
         <v>20</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B34">
         <v>11</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35">
         <v>26</v>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B36">
         <v>2.5</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37">
         <v>14</v>
@@ -6261,7 +6261,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B38">
         <v>26</v>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B39">
         <v>23</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B40">
         <v>24</v>
@@ -6312,7 +6312,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B41">
         <v>2.5</v>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B42">
         <v>27</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B43">
         <v>21</v>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B44">
         <v>24</v>
@@ -6380,7 +6380,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B45">
         <v>25</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B46">
         <v>24</v>
@@ -6414,7 +6414,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B47">
         <v>14</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B48">
         <v>17</v>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -6465,7 +6465,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B50">
         <v>25</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B51">
         <v>25</v>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B52">
         <v>25</v>
@@ -6516,7 +6516,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B53">
         <v>24</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B54">
         <v>16</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B55">
         <v>25</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B57">
         <v>23</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B58">
         <v>12</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B59">
         <v>23</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B60">
         <v>9</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B61">
         <v>25</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B63">
         <v>12</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B64">
         <v>19</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -6725,7 +6725,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B66">
         <v>12</v>
